--- a/src/main/resources/static/excel/billinfo_template_mark.xlsx
+++ b/src/main/resources/static/excel/billinfo_template_mark.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibank\Desktop\cursor_project\cw-b2b-mvp\src\main\resources\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibank\Desktop\cursor_project\sap-rfc-demo\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9BB561-BFDF-4296-917A-75C1E2591D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130FF292-2666-4A73-AC68-7921AECE9EBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1649,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB993"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AJ28" sqref="AJ28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1975,26 +1975,26 @@
       <c r="M6" s="59"/>
       <c r="N6" s="59"/>
       <c r="O6" s="59"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
       <c r="U6" s="7"/>
       <c r="V6" s="51"/>
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
       <c r="Y6" s="51"/>
       <c r="Z6" s="51"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
       <c r="AJ6" s="51"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
@@ -2031,12 +2031,26 @@
       <c r="M7" s="61"/>
       <c r="N7" s="61"/>
       <c r="O7" s="61"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
       <c r="U7" s="7"/>
       <c r="V7" s="51"/>
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
       <c r="Y7" s="51"/>
       <c r="Z7" s="51"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
       <c r="AJ7" s="51"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
@@ -2073,12 +2087,26 @@
       <c r="M8" s="61"/>
       <c r="N8" s="61"/>
       <c r="O8" s="61"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
       <c r="U8" s="7"/>
       <c r="V8" s="51"/>
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
       <c r="Y8" s="51"/>
       <c r="Z8" s="51"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
       <c r="AJ8" s="51"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
@@ -2115,12 +2143,26 @@
       <c r="M9" s="61"/>
       <c r="N9" s="61"/>
       <c r="O9" s="61"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
       <c r="U9" s="7"/>
       <c r="V9" s="51"/>
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
       <c r="Y9" s="51"/>
       <c r="Z9" s="51"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
       <c r="AJ9" s="51"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
@@ -2157,12 +2199,26 @@
       <c r="M10" s="61"/>
       <c r="N10" s="61"/>
       <c r="O10" s="61"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
       <c r="U10" s="7"/>
       <c r="V10" s="51"/>
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
       <c r="Y10" s="51"/>
       <c r="Z10" s="51"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
       <c r="AJ10" s="51"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>

--- a/src/main/resources/static/excel/billinfo_template_mark.xlsx
+++ b/src/main/resources/static/excel/billinfo_template_mark.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibank\Desktop\cursor_project\sap-rfc-demo\src\main\resources\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimsangdae/Desktop/cursor_project/cw-b2b-rfc/sap-rfc-demo/src/main/resources/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130FF292-2666-4A73-AC68-7921AECE9EBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619FF627-12A3-DE4C-AD03-B914E5EDE044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34380" yWindow="2640" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="청구서 상세(최소)_날인 미포함" sheetId="2" r:id="rId1"/>
+    <sheet name="청구서 상세" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>사업자명</t>
   </si>
@@ -238,409 +238,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>들어가는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영역입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>들어가는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영역입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>들어가는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영역입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>들어가는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영역입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>멤버십</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -756,6 +353,50 @@
     <t>{ZBIGO}</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>{MEMBERSHIP_BILL_AMT}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{AS_BILL_AMT}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{CONS_BILL_AMT}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{OVD_BILL_AMT}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PENALTY_BILL_AMT}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{REQ_VALUE1}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{REQ_VALUE2}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{REQ_VALUE3}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{REQ_VALUE4}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{REQ_VALUE5}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{INVOICE_NOTE}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -765,7 +406,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -883,21 +524,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1026,8 +652,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="66">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1146,8 +772,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1188,7 +812,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1201,7 +825,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1649,32 +1274,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB993"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="17" width="11.6640625" style="43" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" style="43" customWidth="1"/>
-    <col min="19" max="20" width="11.6640625" style="43" customWidth="1"/>
-    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19" style="43" customWidth="1"/>
-    <col min="23" max="23" width="21.77734375" style="43" customWidth="1"/>
-    <col min="24" max="26" width="16.88671875" style="43" customWidth="1"/>
-    <col min="27" max="27" width="44.44140625" style="43" customWidth="1"/>
-    <col min="28" max="28" width="23.21875" style="43" customWidth="1"/>
-    <col min="29" max="35" width="18.44140625" style="43" customWidth="1"/>
-    <col min="36" max="36" width="21.109375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="9" width="11.1640625" customWidth="1"/>
+    <col min="10" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
+    <col min="19" max="20" width="11.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" customWidth="1"/>
+    <col min="23" max="23" width="21.83203125" customWidth="1"/>
+    <col min="24" max="26" width="16.83203125" customWidth="1"/>
+    <col min="27" max="27" width="44.5" customWidth="1"/>
+    <col min="28" max="28" width="23.1640625" customWidth="1"/>
+    <col min="29" max="35" width="18.5" customWidth="1"/>
+    <col min="36" max="36" width="21.1640625" customWidth="1"/>
     <col min="37" max="53" width="10" customWidth="1"/>
-    <col min="54" max="54" width="11.109375" customWidth="1"/>
+    <col min="54" max="54" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="18.75" customHeight="1">
@@ -1693,27 +1317,27 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
@@ -1735,10 +1359,10 @@
     </row>
     <row r="2" spans="1:54" ht="6.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1749,27 +1373,27 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
@@ -1791,10 +1415,10 @@
     </row>
     <row r="3" spans="1:54" ht="18.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1805,27 +1429,27 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
@@ -1847,10 +1471,10 @@
     </row>
     <row r="4" spans="1:54" ht="18.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1861,27 +1485,27 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
@@ -1903,10 +1527,10 @@
     </row>
     <row r="5" spans="1:54" ht="18.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1917,27 +1541,27 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
@@ -1959,43 +1583,43 @@
     </row>
     <row r="6" spans="1:54" ht="18.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="51"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="49"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
@@ -2017,41 +1641,41 @@
     </row>
     <row r="7" spans="1:54" ht="18.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="51"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="49"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
@@ -2073,41 +1697,41 @@
     </row>
     <row r="8" spans="1:54" ht="18.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="51"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="49"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
@@ -2129,41 +1753,41 @@
     </row>
     <row r="9" spans="1:54" ht="18.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="51"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="49"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
@@ -2185,41 +1809,41 @@
     </row>
     <row r="10" spans="1:54" ht="18" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="51"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="49"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
@@ -2255,27 +1879,27 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
       <c r="U11" s="10"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="46"/>
       <c r="AK11" s="11"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
@@ -2300,32 +1924,32 @@
       <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
       <c r="R12" s="42"/>
       <c r="S12" s="42"/>
       <c r="T12" s="42"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
       <c r="AA12" s="42"/>
       <c r="AB12" s="42"/>
       <c r="AC12" s="42"/>
@@ -2335,7 +1959,7 @@
       <c r="AG12" s="42"/>
       <c r="AH12" s="42"/>
       <c r="AI12" s="42"/>
-      <c r="AJ12" s="52"/>
+      <c r="AJ12" s="50"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
       <c r="AM12" s="14"/>
@@ -2360,32 +1984,32 @@
       <c r="B13" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
       <c r="S13" s="42"/>
       <c r="T13" s="42"/>
       <c r="U13" s="16"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
       <c r="AA13" s="42"/>
       <c r="AB13" s="42"/>
       <c r="AC13" s="42"/>
@@ -2395,7 +2019,7 @@
       <c r="AG13" s="42"/>
       <c r="AH13" s="42"/>
       <c r="AI13" s="42"/>
-      <c r="AJ13" s="53"/>
+      <c r="AJ13" s="51"/>
       <c r="AK13" s="18"/>
       <c r="AL13" s="18"/>
       <c r="AM13" s="18"/>
@@ -2487,27 +2111,27 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
       <c r="U15" s="10"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
       <c r="AK15" s="11"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
@@ -2547,27 +2171,27 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
       <c r="U16" s="10"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
       <c r="AK16" s="11"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
@@ -2603,27 +2227,27 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
       <c r="U17" s="10"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
       <c r="AK17" s="11"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
@@ -2902,11 +2526,11 @@
       <c r="B22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="23" t="s">
         <v>10</v>
       </c>
@@ -2964,9 +2588,9 @@
     <row r="23" spans="1:54" ht="24" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="23" t="s">
         <v>13</v>
       </c>
@@ -3026,9 +2650,9 @@
       <c r="B24" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="23"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -3081,12 +2705,12 @@
     </row>
     <row r="25" spans="1:54" ht="24" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="44" t="s">
-        <v>54</v>
+      <c r="B25" s="65" t="s">
+        <v>93</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="23"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -3240,65 +2864,65 @@
         <v>31</v>
       </c>
       <c r="P27" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="Q27" s="32" t="s">
+      <c r="R27" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="R27" s="32" t="s">
+      <c r="S27" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="S27" s="32" t="s">
+      <c r="T27" s="32" t="s">
         <v>58</v>
-      </c>
-      <c r="T27" s="32" t="s">
-        <v>59</v>
       </c>
       <c r="U27" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="V27" s="55" t="s">
+      <c r="V27" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="W27" s="53"/>
+      <c r="X27" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="W27" s="55"/>
-      <c r="X27" s="49" t="s">
+      <c r="Y27" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="Y27" s="49" t="s">
+      <c r="Z27" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="Z27" s="49" t="s">
+      <c r="AA27" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="AA27" s="49" t="s">
+      <c r="AB27" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="AB27" s="49" t="s">
+      <c r="AC27" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="AC27" s="49" t="s">
+      <c r="AD27" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="AD27" s="49" t="s">
+      <c r="AE27" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AE27" s="49" t="s">
+      <c r="AF27" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AF27" s="49" t="s">
+      <c r="AG27" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AG27" s="49" t="s">
+      <c r="AH27" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AH27" s="49" t="s">
+      <c r="AI27" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AI27" s="49" t="s">
+      <c r="AJ27" s="47" t="s">
         <v>72</v>
-      </c>
-      <c r="AJ27" s="49" t="s">
-        <v>73</v>
       </c>
       <c r="AK27" s="11"/>
       <c r="AL27" s="11"/>
@@ -3319,7 +2943,7 @@
       <c r="BA27" s="4"/>
       <c r="BB27" s="11"/>
     </row>
-    <row r="28" spans="1:54" ht="20.399999999999999" customHeight="1">
+    <row r="28" spans="1:54" ht="20.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="35" t="s">
         <v>39</v>
@@ -3363,46 +2987,66 @@
       <c r="O28" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
+      <c r="P28" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q28" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="R28" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="S28" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="T28" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="U28" s="39"/>
       <c r="V28" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="W28" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="W28" s="38" t="s">
+      <c r="X28" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="X28" s="38" t="s">
+      <c r="Y28" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="Y28" s="38" t="s">
+      <c r="Z28" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="Z28" s="38" t="s">
+      <c r="AA28" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AA28" s="38" t="s">
+      <c r="AB28" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AB28" s="38" t="s">
+      <c r="AC28" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="AC28" s="38" t="s">
+      <c r="AD28" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="AD28" s="38" t="s">
+      <c r="AE28" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF28" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG28" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH28" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI28" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ28" s="38" t="s">
         <v>82</v>
-      </c>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="38"/>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="38" t="s">
-        <v>83</v>
       </c>
       <c r="AK28" s="11"/>
       <c r="AL28" s="11"/>
@@ -4895,27 +4539,27 @@
       <c r="M55" s="40"/>
       <c r="N55" s="40"/>
       <c r="O55" s="40"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="50"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
       <c r="U55" s="40"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="50"/>
-      <c r="Z55" s="50"/>
-      <c r="AA55" s="50"/>
-      <c r="AB55" s="50"/>
-      <c r="AC55" s="50"/>
-      <c r="AD55" s="50"/>
-      <c r="AE55" s="50"/>
-      <c r="AF55" s="50"/>
-      <c r="AG55" s="50"/>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="50"/>
-      <c r="AJ55" s="50"/>
+      <c r="V55" s="48"/>
+      <c r="W55" s="48"/>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="48"/>
+      <c r="AA55" s="48"/>
+      <c r="AB55" s="48"/>
+      <c r="AC55" s="48"/>
+      <c r="AD55" s="48"/>
+      <c r="AE55" s="48"/>
+      <c r="AF55" s="48"/>
+      <c r="AG55" s="48"/>
+      <c r="AH55" s="48"/>
+      <c r="AI55" s="48"/>
+      <c r="AJ55" s="48"/>
       <c r="AK55" s="11"/>
       <c r="AL55" s="11"/>
       <c r="AM55" s="11"/>
@@ -4951,27 +4595,27 @@
       <c r="M56" s="40"/>
       <c r="N56" s="40"/>
       <c r="O56" s="40"/>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="50"/>
-      <c r="S56" s="50"/>
-      <c r="T56" s="50"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="48"/>
       <c r="U56" s="40"/>
-      <c r="V56" s="50"/>
-      <c r="W56" s="50"/>
-      <c r="X56" s="50"/>
-      <c r="Y56" s="50"/>
-      <c r="Z56" s="50"/>
-      <c r="AA56" s="50"/>
-      <c r="AB56" s="50"/>
-      <c r="AC56" s="50"/>
-      <c r="AD56" s="50"/>
-      <c r="AE56" s="50"/>
-      <c r="AF56" s="50"/>
-      <c r="AG56" s="50"/>
-      <c r="AH56" s="50"/>
-      <c r="AI56" s="50"/>
-      <c r="AJ56" s="50"/>
+      <c r="V56" s="48"/>
+      <c r="W56" s="48"/>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="48"/>
+      <c r="Z56" s="48"/>
+      <c r="AA56" s="48"/>
+      <c r="AB56" s="48"/>
+      <c r="AC56" s="48"/>
+      <c r="AD56" s="48"/>
+      <c r="AE56" s="48"/>
+      <c r="AF56" s="48"/>
+      <c r="AG56" s="48"/>
+      <c r="AH56" s="48"/>
+      <c r="AI56" s="48"/>
+      <c r="AJ56" s="48"/>
       <c r="AK56" s="11"/>
       <c r="AL56" s="11"/>
       <c r="AM56" s="11"/>
@@ -4993,40 +4637,40 @@
     </row>
     <row r="57" spans="1:54" ht="18.75" customHeight="1">
       <c r="A57" s="8"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="57"/>
-      <c r="T57" s="57"/>
-      <c r="U57" s="57"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="55"/>
+      <c r="U57" s="55"/>
       <c r="V57" s="42"/>
       <c r="W57" s="42"/>
       <c r="X57" s="42"/>
       <c r="Y57" s="42"/>
       <c r="Z57" s="42"/>
       <c r="AA57" s="8"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
-      <c r="AD57" s="54"/>
-      <c r="AE57" s="54"/>
-      <c r="AF57" s="54"/>
-      <c r="AG57" s="54"/>
-      <c r="AH57" s="54"/>
-      <c r="AI57" s="54"/>
+      <c r="AB57" s="52"/>
+      <c r="AC57" s="52"/>
+      <c r="AD57" s="52"/>
+      <c r="AE57" s="52"/>
+      <c r="AF57" s="52"/>
+      <c r="AG57" s="52"/>
+      <c r="AH57" s="52"/>
+      <c r="AI57" s="52"/>
       <c r="AJ57" s="42"/>
       <c r="AK57" s="11"/>
       <c r="AL57" s="11"/>

--- a/src/main/resources/static/excel/billinfo_template_mark.xlsx
+++ b/src/main/resources/static/excel/billinfo_template_mark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimsangdae/Desktop/cursor_project/cw-b2b-rfc/sap-rfc-demo/src/main/resources/static/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibank\Desktop\cursor_project\sap-rfc-demo\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619FF627-12A3-DE4C-AD03-B914E5EDE044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928F9F6E-816B-4143-9941-D10336264DA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34380" yWindow="2640" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34380" yWindow="2640" windowWidth="30240" windowHeight="18876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="청구서 상세" sheetId="2" r:id="rId1"/>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>계약일(설치일)</t>
-  </si>
-  <si>
-    <t>의무사용기간</t>
   </si>
   <si>
     <t>약정기간</t>
@@ -187,10 +184,6 @@
   </si>
   <si>
     <t>{INST_DT}</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>{USE_DUTY_MONTH}</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -395,6 +388,14 @@
   </si>
   <si>
     <t>{INVOICE_NOTE}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{USE_DUTY_DATE}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>의무사용기간</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -800,6 +801,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -826,7 +828,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1274,31 +1275,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB993"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:O12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
     <col min="4" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="9" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" customWidth="1"/>
     <col min="10" max="17" width="11.6640625" customWidth="1"/>
     <col min="18" max="18" width="13.6640625" customWidth="1"/>
     <col min="19" max="20" width="11.6640625" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19" customWidth="1"/>
-    <col min="23" max="23" width="21.83203125" customWidth="1"/>
-    <col min="24" max="26" width="16.83203125" customWidth="1"/>
-    <col min="27" max="27" width="44.5" customWidth="1"/>
-    <col min="28" max="28" width="23.1640625" customWidth="1"/>
-    <col min="29" max="35" width="18.5" customWidth="1"/>
-    <col min="36" max="36" width="21.1640625" customWidth="1"/>
+    <col min="23" max="23" width="21.77734375" customWidth="1"/>
+    <col min="24" max="26" width="16.77734375" customWidth="1"/>
+    <col min="27" max="27" width="44.44140625" customWidth="1"/>
+    <col min="28" max="28" width="23.109375" customWidth="1"/>
+    <col min="29" max="35" width="18.44140625" customWidth="1"/>
+    <col min="36" max="36" width="21.109375" customWidth="1"/>
     <col min="37" max="53" width="10" customWidth="1"/>
-    <col min="54" max="54" width="11.1640625" customWidth="1"/>
+    <col min="54" max="54" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="18.75" customHeight="1">
@@ -1359,10 +1360,10 @@
     </row>
     <row r="2" spans="1:54" ht="6.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1415,10 +1416,10 @@
     </row>
     <row r="3" spans="1:54" ht="18.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1471,10 +1472,10 @@
     </row>
     <row r="4" spans="1:54" ht="18.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1527,10 +1528,10 @@
     </row>
     <row r="5" spans="1:54" ht="18.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1583,22 +1584,22 @@
     </row>
     <row r="6" spans="1:54" ht="18.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="60" t="s">
-        <v>32</v>
+      <c r="B6" s="61" t="s">
+        <v>31</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
       <c r="P6" s="43"/>
       <c r="Q6" s="43"/>
       <c r="R6" s="43"/>
@@ -1641,20 +1642,20 @@
     </row>
     <row r="7" spans="1:54" ht="18.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="43"/>
       <c r="R7" s="43"/>
@@ -1697,20 +1698,20 @@
     </row>
     <row r="8" spans="1:54" ht="18.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -1753,20 +1754,20 @@
     </row>
     <row r="9" spans="1:54" ht="18.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
       <c r="P9" s="45"/>
       <c r="Q9" s="45"/>
       <c r="R9" s="45"/>
@@ -1809,20 +1810,20 @@
     </row>
     <row r="10" spans="1:54" ht="18" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
       <c r="P10" s="45"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="45"/>
@@ -1924,21 +1925,21 @@
       <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="61" t="s">
-        <v>33</v>
+      <c r="C12" s="62" t="s">
+        <v>32</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
       <c r="R12" s="42"/>
@@ -1984,21 +1985,21 @@
       <c r="B13" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="62" t="s">
-        <v>34</v>
+      <c r="C13" s="63" t="s">
+        <v>33</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
@@ -2273,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -2337,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -2400,7 +2401,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -2463,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -2526,11 +2527,11 @@
       <c r="B22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="63" t="s">
-        <v>38</v>
+      <c r="C22" s="64" t="s">
+        <v>37</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="23" t="s">
         <v>10</v>
       </c>
@@ -2588,9 +2589,9 @@
     <row r="23" spans="1:54" ht="24" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="23" t="s">
         <v>13</v>
       </c>
@@ -2648,11 +2649,11 @@
     <row r="24" spans="1:54" ht="24" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="23"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -2705,12 +2706,12 @@
     </row>
     <row r="25" spans="1:54" ht="24" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="65" t="s">
-        <v>93</v>
+      <c r="B25" s="53" t="s">
+        <v>91</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="23"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -2783,7 +2784,7 @@
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V26" s="31"/>
       <c r="W26" s="31"/>
@@ -2834,95 +2835,95 @@
         <v>19</v>
       </c>
       <c r="F27" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="H27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="I27" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="J27" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="K27" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="L27" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="N27" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="32" t="s">
-        <v>26</v>
+      <c r="P27" s="32" t="s">
+        <v>52</v>
       </c>
-      <c r="N27" s="32" t="s">
+      <c r="Q27" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="R27" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="T27" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="U27" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O27" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="R27" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="S27" s="32" t="s">
+      <c r="V27" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="T27" s="32" t="s">
+      <c r="W27" s="54"/>
+      <c r="X27" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="U27" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="V27" s="53" t="s">
+      <c r="Y27" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="W27" s="53"/>
-      <c r="X27" s="47" t="s">
+      <c r="Z27" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="Y27" s="47" t="s">
+      <c r="AA27" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="Z27" s="47" t="s">
+      <c r="AB27" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AA27" s="47" t="s">
+      <c r="AC27" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="AB27" s="47" t="s">
+      <c r="AD27" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="AC27" s="47" t="s">
+      <c r="AE27" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="AD27" s="47" t="s">
+      <c r="AF27" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="AE27" s="47" t="s">
+      <c r="AG27" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AF27" s="47" t="s">
+      <c r="AH27" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AG27" s="47" t="s">
+      <c r="AI27" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AH27" s="47" t="s">
+      <c r="AJ27" s="47" t="s">
         <v>70</v>
-      </c>
-      <c r="AI27" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ27" s="47" t="s">
-        <v>72</v>
       </c>
       <c r="AK27" s="11"/>
       <c r="AL27" s="11"/>
@@ -2943,110 +2944,110 @@
       <c r="BA27" s="4"/>
       <c r="BB27" s="11"/>
     </row>
-    <row r="28" spans="1:54" ht="20.5" customHeight="1">
+    <row r="28" spans="1:54" ht="20.55" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="D28" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="36" t="s">
-        <v>52</v>
+      <c r="F28" s="37" t="s">
+        <v>92</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="G28" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="H28" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="I28" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="J28" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="36" t="s">
+      <c r="K28" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="38" t="s">
+      <c r="L28" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="38" t="s">
+      <c r="M28" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="L28" s="38" t="s">
+      <c r="N28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="M28" s="38" t="s">
+      <c r="O28" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="N28" s="38" t="s">
-        <v>50</v>
+      <c r="P28" s="38" t="s">
+        <v>81</v>
       </c>
-      <c r="O28" s="38" t="s">
-        <v>51</v>
+      <c r="Q28" s="38" t="s">
+        <v>82</v>
       </c>
-      <c r="P28" s="38" t="s">
+      <c r="R28" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="Q28" s="38" t="s">
+      <c r="S28" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="R28" s="38" t="s">
+      <c r="T28" s="38" t="s">
         <v>85</v>
-      </c>
-      <c r="S28" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="T28" s="38" t="s">
-        <v>87</v>
       </c>
       <c r="U28" s="39"/>
       <c r="V28" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="W28" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="X28" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="W28" s="38" t="s">
+      <c r="Y28" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="X28" s="38" t="s">
+      <c r="Z28" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="Y28" s="38" t="s">
+      <c r="AA28" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="Z28" s="38" t="s">
+      <c r="AB28" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AA28" s="38" t="s">
+      <c r="AC28" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AB28" s="38" t="s">
+      <c r="AD28" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AC28" s="38" t="s">
-        <v>80</v>
+      <c r="AE28" s="38" t="s">
+        <v>86</v>
       </c>
-      <c r="AD28" s="38" t="s">
-        <v>81</v>
+      <c r="AF28" s="38" t="s">
+        <v>87</v>
       </c>
-      <c r="AE28" s="38" t="s">
+      <c r="AG28" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="AF28" s="38" t="s">
+      <c r="AH28" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="AG28" s="38" t="s">
+      <c r="AI28" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AH28" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI28" s="38" t="s">
-        <v>92</v>
-      </c>
       <c r="AJ28" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK28" s="11"/>
       <c r="AL28" s="11"/>
@@ -4637,26 +4638,26 @@
     </row>
     <row r="57" spans="1:54" ht="18.75" customHeight="1">
       <c r="A57" s="8"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="56"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="56"/>
       <c r="V57" s="42"/>
       <c r="W57" s="42"/>
       <c r="X57" s="42"/>
